--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t xml:space="preserve">Message id</t>
   </si>
@@ -40,21 +40,30 @@
     <t xml:space="preserve">ARTE Taxi</t>
   </si>
   <si>
-    <t xml:space="preserve">Arte Taxisky</t>
+    <t xml:space="preserve">ARTE Taxi </t>
   </si>
   <si>
     <t xml:space="preserve">Autonoleggio RadioTaxi Terme Euganee</t>
   </si>
   <si>
+    <t xml:space="preserve">прокат автомобилей радио такси Terme Euganee </t>
+  </si>
+  <si>
     <t xml:space="preserve">Car rental RadioTaxi Terme Euganee</t>
   </si>
   <si>
     <t xml:space="preserve">A.R.T.E.</t>
   </si>
   <si>
+    <t xml:space="preserve">A.R.T.E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Autonoleggio Radio Taxi</t>
   </si>
   <si>
+    <t xml:space="preserve">прокат автомобилей радио такси</t>
+  </si>
+  <si>
     <t xml:space="preserve">Car rental RadioTaxi</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t xml:space="preserve">Quem Somos</t>
   </si>
   <si>
+    <t xml:space="preserve">кто мы</t>
+  </si>
+  <si>
     <t xml:space="preserve">About us</t>
   </si>
   <si>
@@ -73,6 +85,9 @@
     <t xml:space="preserve">Serviços</t>
   </si>
   <si>
+    <t xml:space="preserve">обслуживание</t>
+  </si>
+  <si>
     <t xml:space="preserve">Services</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t xml:space="preserve">Carros</t>
   </si>
   <si>
+    <t xml:space="preserve">автомобиль</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cars</t>
   </si>
   <si>
@@ -91,10 +109,16 @@
     <t xml:space="preserve">Contatos</t>
   </si>
   <si>
+    <t xml:space="preserve">контакты</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contacts</t>
   </si>
   <si>
     <t xml:space="preserve">ARTE Taxi - Terme Euganee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTE Taxi Terme Euganee</t>
   </si>
   <si>
     <t xml:space="preserve">Il Consorzio Autonoleggio Radiotaxi Terme Euganee
@@ -110,7 +134,10 @@
 Oferecendo aos seus clientes carros luxuosos e elegantes, afim de oferecer máxima garantia de qualidade ,pontualidade,preço honesto e transparente com tarifas acessivéis, sempre previamente concordadas</t>
   </si>
   <si>
-    <t xml:space="preserve">The Radiotaxi Terme Terme Euganee Consortium carries out prestigious passenger cars in the TAXI and NCC (hire with driver) sector, always aiming to offer its customers the highest quality guarantee, punctuality, transparent price with rates agreed in advance</t>
+    <t xml:space="preserve">Консорциум Прокат автомобилей с водителем Радиотакси Терме Эуганее включает в себя операторов отрасли Taxi и CNN (прокат машины с водителем). Мы гарантируем своим клиентам великолепное качество обслуживания, пунктуальность, прозрачные цены по предварительно обговоренным тарифам, обслуживание на престижных моделях автомобилей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radiotaxi Terme Terme Euganee Consortium has a prestigious selection of passenger cars in the TAXI and hire with driver sector, always aiming to guarantee its customers the higest quality, punctuality and transparent prices with rates agreed in advance.</t>
   </si>
   <si>
     <t xml:space="preserve">Abbiamo ciò di cui hai bisogno</t>
@@ -119,7 +146,10 @@
     <t xml:space="preserve">TEMOS O QUE VOCÊ PRECISA</t>
   </si>
   <si>
-    <t xml:space="preserve">We have what you need</t>
+    <t xml:space="preserve">У нас вы найдете  все то, что ищете!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have everything you need</t>
   </si>
   <si>
     <t xml:space="preserve">I punti di forza del nostro gruppo sono una vasta gamma di automezzi,
@@ -135,11 +165,15 @@
 Sempre com um team de motoristas que estão há muitos anos no mercado de táxi ,com um amplo conhecimento do próprio território.</t>
   </si>
   <si>
+    <t xml:space="preserve">Сильные точки нашей группы являются самыми разнообразными транспортными средствами,  Berlina (седан) для деловых встреч, Station Wagon и минивэны для семейных поездок, микроавтобусы на 8 мест для групп, автомобили для перевозки инвалидов,  в любом месте назначения.  Еще одним важным преимуществом является то, что наши водители обладают многолетним опытом вождения и отличным знанием местности. 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">The strengths of our group are a wide range of vehicles,
-the Berline for your business trips, our Station Wagon and Mopeds,
+Our sedans for your business trips, our Station Wagon and Minivans,
 our eight-seater minibuses and our disabled vehicle to go
-wherever you want, without leaving a team of drivers operating now
-for years in the sector with the utmost knowledge of the territory.</t>
+wherever you want, without forgetting a team of drivers who have been operating in the sector 
+for years  with an utmost knowledge of the territory.</t>
   </si>
   <si>
     <t xml:space="preserve">Assicuriamo la nostra puntuale presenza ovunque Voi lo richiediate
@@ -153,10 +187,14 @@
 Estaremos a disposição e será um prazer recebê-los para oferecer outras informações e realizar a sua exigência.</t>
   </si>
   <si>
+    <t xml:space="preserve">Мы гарантируем круглосуточное обслуживание в любое время года в любом месте Вашего нахождения.  По Вашему дополнительному запросу мы предоставим водителей со знанием английского, французского и немецкого языков. Будем рады предоставить Вам наши услуги и, в случае необходимости, любую дополнительную информацию
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">We assure our punctual presence wherever you request it
-24 hours a day for 365 days and on request we provide drivers with
+24 hours a day for 365 days a year and on request we provide drivers with
 knowledge of English, French and German.
-We will be delighted to offer you more information by putting all of it
+We would be delighted to offer you more information, putting all of it
 our experience at your disposal.</t>
   </si>
   <si>
@@ -166,7 +204,10 @@
     <t xml:space="preserve">para oferecer outras informações e realizar a sua exigência.</t>
   </si>
   <si>
-    <t xml:space="preserve">Everything to satisfy all your needs.</t>
+    <t xml:space="preserve">Все, чтобы удовлетворить все ваши потребности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything to satisfy  your needs.</t>
   </si>
   <si>
     <t xml:space="preserve">Vienici a trovare!</t>
@@ -175,7 +216,10 @@
     <t xml:space="preserve">Venha nos visitar,seremos felizes em conhece-lo!</t>
   </si>
   <si>
-    <t xml:space="preserve">Come to find us!</t>
+    <t xml:space="preserve">Мы ждем Вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come and se  us!</t>
   </si>
   <si>
     <t xml:space="preserve">Al tuo servizio</t>
@@ -184,6 +228,9 @@
     <t xml:space="preserve">AO TEU SERVIÇO</t>
   </si>
   <si>
+    <t xml:space="preserve">В Вашем распоряжении:</t>
+  </si>
+  <si>
     <t xml:space="preserve">At your service</t>
   </si>
   <si>
@@ -193,6 +240,9 @@
     <t xml:space="preserve">SERVIÇO TÁXI</t>
   </si>
   <si>
+    <t xml:space="preserve">Сервис такси</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taxi Service</t>
   </si>
   <si>
@@ -202,6 +252,9 @@
     <t xml:space="preserve">O melhor transporte de passageiros público</t>
   </si>
   <si>
+    <t xml:space="preserve">Для лучшего транспортного обслуживания</t>
+  </si>
+  <si>
     <t xml:space="preserve">The best public transport</t>
   </si>
   <si>
@@ -211,6 +264,9 @@
     <t xml:space="preserve">VIAGEM DE NEGÓCIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Деловые поездки</t>
+  </si>
+  <si>
     <t xml:space="preserve">Business travel</t>
   </si>
   <si>
@@ -220,6 +276,9 @@
     <t xml:space="preserve">Pensa ao teu business, na viagem pensamos nós</t>
   </si>
   <si>
+    <t xml:space="preserve">Сосредоточьтесь на своем бизнесе, об остальном позаботимся мы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focus on your business, we will think on the travel</t>
   </si>
   <si>
@@ -227,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туры</t>
   </si>
   <si>
     <t xml:space="preserve">Visite in città ed escursioni turistiche con possibilità di prenotazione
@@ -236,6 +298,9 @@
     <t xml:space="preserve">Visitas e excursões turísticas com possibilidade de fazer reserva de um guia turístico</t>
   </si>
   <si>
+    <t xml:space="preserve">Городские туры и туристические экскурсии с возможностью бронирования гида</t>
+  </si>
+  <si>
     <t xml:space="preserve">City tours and tourist excursions with possibility of booking a guide</t>
   </si>
   <si>
@@ -243,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRANSFERIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транспортный трансфер</t>
   </si>
   <si>
     <t xml:space="preserve">Transfers</t>
@@ -257,6 +325,9 @@
 Treviso e Venezia de modo fácil.De Táxi ou minibus.Oferecendo também serviços condivisos com outros passageiros</t>
   </si>
   <si>
+    <t xml:space="preserve">В аэропорты/ и на вокзалы/с Возможен групповой трансфер в близжайшие города Венецию и Тревизо</t>
+  </si>
+  <si>
     <t xml:space="preserve">From and to airports or stations&lt;br&gt;
 Treviso and Venice at your fingertips
 even with collective services</t>
@@ -265,16 +336,25 @@
     <t xml:space="preserve">VEDI</t>
   </si>
   <si>
+    <t xml:space="preserve">Просмотр</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIEW</t>
   </si>
   <si>
     <t xml:space="preserve">Contattaci</t>
   </si>
   <si>
+    <t xml:space="preserve">Ждем ваших обращений!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contact us</t>
   </si>
   <si>
     <t xml:space="preserve">Consorzio Autonoleggio Radiotaxi Terme Euganee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прокат автомобилей радио такси  Terme Euganee</t>
   </si>
   <si>
     <t xml:space="preserve">Car Rental Radiotaxi Terme Euganee</t>
@@ -292,10 +372,13 @@
 				Tel: 049.66.78.42</t>
   </si>
   <si>
+    <t xml:space="preserve">главный офис &lt;br&gt;     Via P. D'Abano 14&lt;br&gt;     35031 - Abano Terme - (PD)&lt;br&gt;     Tel: 049.66.78.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAIN OFFICE&lt;br&gt;
-				Via P. D'Abano 14&lt;br&gt;
-				35031 - Abano Terme - (PD)&lt;br&gt;
-				Tel: 049.66.78.42</t>
+Via P. D'Abano 14&lt;br&gt;
+35031 - Abano Terme - (PD)&lt;br&gt;
+Tel: 049.66.78.42</t>
   </si>
   <si>
     <t xml:space="preserve">SEDE SECONDARIA&lt;br&gt;
@@ -308,9 +391,12 @@
 				35036 - Montegrotto Terme - (PD)</t>
   </si>
   <si>
+    <t xml:space="preserve">вторичный офис &lt;br&gt; Piazzale  Stazione&lt;br&gt;     35036 - Montegrotto Terme – (PD)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SECONDARY OFFICE&lt;br&gt;
-				viale Stazione&lt;br&gt;
-				35036 - Montegrotto Terme - (PD)</t>
+viale Stazione&lt;br&gt;
+35036 - Montegrotto Terme - (PD)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -343,13 +429,41 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,7 +475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,25 +499,118 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,10 +640,10 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -447,333 +654,417 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="959.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="918.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="676.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="190.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <t xml:space="preserve">Message id</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">en</t>
   </si>
   <si>
+    <t xml:space="preserve">fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARTE Taxi</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">Car rental RadioTaxi Terme Euganee</t>
   </si>
   <si>
+    <t xml:space="preserve">Location de voiture RadioTaxi Terme Euganee</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.R.T.E.</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t xml:space="preserve">Car rental RadioTaxi</t>
   </si>
   <si>
+    <t xml:space="preserve">Location de voiture avec chauffeur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chi siamo</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t xml:space="preserve">About us</t>
   </si>
   <si>
+    <t xml:space="preserve">Qui nous sommes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Servizi</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t xml:space="preserve">Services</t>
   </si>
   <si>
+    <t xml:space="preserve">services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auto</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t xml:space="preserve">Cars</t>
   </si>
   <si>
+    <t xml:space="preserve">voitures</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contatti</t>
   </si>
   <si>
@@ -113,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacts</t>
   </si>
   <si>
     <t xml:space="preserve">ARTE Taxi - Terme Euganee</t>
@@ -140,6 +161,13 @@
     <t xml:space="preserve">The Radiotaxi Terme Terme Euganee Consortium has a prestigious selection of passenger cars in the TAXI and hire with driver sector, always aiming to guarantee its customers the higest quality, punctuality and transparent prices with rates agreed in advance.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le Consorzio Autonoleggio Radiotaxi Terme Euganee
+fait appel aux opérateurs TAXI et NCC (location
+avec chauffeur) de voitures de prestige,
+toujours se donner l'objectif d'offrir la garantie de la plus haute qualité au client, prix ponctuel transparent
+avec des taux préalablement convenus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbiamo ciò di cui hai bisogno</t>
   </si>
   <si>
@@ -150,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">We have everything you need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous avons ce dont vous avez besoin</t>
   </si>
   <si>
     <t xml:space="preserve">I punti di forza del nostro gruppo sono una vasta gamma di automezzi,
@@ -176,6 +207,12 @@
 for years  with an utmost knowledge of the territory.</t>
   </si>
   <si>
+    <t xml:space="preserve">Les points forts de notre groupe sont une large gamme de véhicules,
+les berlines pour vos voyages d'affaires, nos breaks et minivans,
+nos minibus à huit places et notre véhicule pour handicapés qui vous emmèneront où vous voulez, sans négliger une équipe de chauffeurs qui travaillent maintenant
+depuis des années dans le secteur avec la connaissance maximale du territoire.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assicuriamo la nostra puntuale presenza ovunque Voi lo richiediate
 					24 ore su 24 per 365 giorni e su richiesta forniamo autisti con
 					conoscenza della lingua inglese, francese e tedesca.
@@ -198,6 +235,13 @@
 our experience at your disposal.</t>
   </si>
   <si>
+    <t xml:space="preserve">Nous assurons notre présence ponctuelle partout où vous le demandez
+24 heures sur 24 pendant 365 jours et sur demande, nous fournissons aux conducteurs
+connaissance de l'anglais, du français et de l'allemand.
+Nous serons heureux de vous offrir plus d'informations en mettant toutes les informations
+de notre expérience à votre disposition.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il tutto per soddisfare ogni vostra esigenza.</t>
   </si>
   <si>
@@ -210,6 +254,9 @@
     <t xml:space="preserve">Everything to satisfy  your needs.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tout pour satisfaire tous vos besoins.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vienici a trovare!</t>
   </si>
   <si>
@@ -222,6 +269,9 @@
     <t xml:space="preserve">Come and se  us!</t>
   </si>
   <si>
+    <t xml:space="preserve">Venez nous rendre visite!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Al tuo servizio</t>
   </si>
   <si>
@@ -234,6 +284,9 @@
     <t xml:space="preserve">At your service</t>
   </si>
   <si>
+    <t xml:space="preserve">À votre service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Servizio Taxi</t>
   </si>
   <si>
@@ -246,6 +299,9 @@
     <t xml:space="preserve">Taxi Service</t>
   </si>
   <si>
+    <t xml:space="preserve">Service de taxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il miglior trasporto di passeggeri pubblico</t>
   </si>
   <si>
@@ -258,6 +314,9 @@
     <t xml:space="preserve">The best public transport</t>
   </si>
   <si>
+    <t xml:space="preserve">Le meilleur transport de passagers publics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viaggi d'affari</t>
   </si>
   <si>
@@ -270,6 +329,9 @@
     <t xml:space="preserve">Business travel</t>
   </si>
   <si>
+    <t xml:space="preserve">Voyages d'affaires</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concentrati sul tuo business, al viaggio pensiamo noi</t>
   </si>
   <si>
@@ -280,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">Focus on your business, we will think on the travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrez-vous sur votre entreprise, nous nous occuperons du voyage</t>
   </si>
   <si>
     <t xml:space="preserve">Tours</t>
@@ -304,6 +369,9 @@
     <t xml:space="preserve">City tours and tourist excursions with possibility of booking a guide</t>
   </si>
   <si>
+    <t xml:space="preserve">Tours de ville et excursions touristiques avec possibilité de réservation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trasferimenti</t>
   </si>
   <si>
@@ -314,6 +382,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guides</t>
   </si>
   <si>
     <t xml:space="preserve">Da e per gli aeroporti o stazioni.&lt;br&gt;
@@ -333,6 +404,11 @@
 even with collective services</t>
   </si>
   <si>
+    <t xml:space="preserve">À destination et en provenance des aéroports ou des gares. &lt;br&gt;
+Trévise et Venise à portée de main
+également avec des services collectifs</t>
+  </si>
+  <si>
     <t xml:space="preserve">VEDI</t>
   </si>
   <si>
@@ -342,6 +418,9 @@
     <t xml:space="preserve">VIEW</t>
   </si>
   <si>
+    <t xml:space="preserve">VOIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contattaci</t>
   </si>
   <si>
@@ -349,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contact us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
   </si>
   <si>
     <t xml:space="preserve">Consorzio Autonoleggio Radiotaxi Terme Euganee</t>
@@ -381,6 +463,9 @@
 Tel: 049.66.78.42</t>
   </si>
   <si>
+    <t xml:space="preserve">BUREAU PRINCIPAL - Via P. D'Abano 14 &lt;br&gt; 35031 - Abano Terme - (PD) - Tel: 049.66.78.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEDE SECONDARIA&lt;br&gt;
 				viale Stazione&lt;br&gt;
 				35036 - Montegrotto Terme - (PD)</t>
@@ -397,6 +482,9 @@
     <t xml:space="preserve">SECONDARY OFFICE&lt;br&gt;
 viale Stazione&lt;br&gt;
 35036 - Montegrotto Terme - (PD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUREAU SECONDAIRE – Viale Stazione &lt;br&gt; 35036 - Montegrotto Terme – (PD)</t>
   </si>
 </sst>
 </file>
@@ -433,23 +521,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -499,12 +588,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,8 +602,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -525,7 +622,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,8 +630,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -549,7 +650,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -619,15 +720,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,6 +749,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -660,411 +766,501 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="959.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="918.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="676.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="190.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
+      <c r="A24" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>102</v>
+      <c r="A30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="160">
   <si>
     <t xml:space="preserve">Message id</t>
   </si>
@@ -40,12 +40,18 @@
     <t xml:space="preserve">fr</t>
   </si>
   <si>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARTE Taxi</t>
   </si>
   <si>
     <t xml:space="preserve">ARTE Taxi </t>
   </si>
   <si>
+    <t xml:space="preserve">A.R.T.E Taxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Autonoleggio RadioTaxi Terme Euganee</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">Location de voiture RadioTaxi Terme Euganee</t>
   </si>
   <si>
+    <t xml:space="preserve">Autovermietung mit Fahrer Taxi Terme Euganee</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.R.T.E.</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t xml:space="preserve">Location de voiture avec chauffeur</t>
   </si>
   <si>
+    <t xml:space="preserve">Limousinenservice o Chauffeurservice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chi siamo</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t xml:space="preserve">Qui nous sommes</t>
   </si>
   <si>
+    <t xml:space="preserve">Über uns</t>
+  </si>
+  <si>
     <t xml:space="preserve">Servizi</t>
   </si>
   <si>
@@ -106,6 +121,9 @@
     <t xml:space="preserve">services</t>
   </si>
   <si>
+    <t xml:space="preserve">Leistungen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auto</t>
   </si>
   <si>
@@ -121,6 +139,9 @@
     <t xml:space="preserve">voitures</t>
   </si>
   <si>
+    <t xml:space="preserve">Autos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contatti</t>
   </si>
   <si>
@@ -134,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakte</t>
   </si>
   <si>
     <t xml:space="preserve">ARTE Taxi - Terme Euganee</t>
@@ -168,6 +192,31 @@
 avec des taux préalablement convenus</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Die Gesellschaft  Autonoleggio Radiotaxi Terme Euganee
+benutzt TAXI und Autovermietung mit Fahrer  mit Prestigeautos.
+Unzer Ziel ist von immer an unseren kunden höchste Qualität ,Pünktualit</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ät  und zustimmte preisen anzubieten.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Abbiamo ciò di cui hai bisogno</t>
   </si>
   <si>
@@ -181,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nous avons ce dont vous avez besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir haben was Sie brauchen</t>
   </si>
   <si>
     <t xml:space="preserve">I punti di forza del nostro gruppo sono una vasta gamma di automezzi,
@@ -213,6 +265,9 @@
 depuis des années dans le secteur avec la connaissance maximale du territoire.</t>
   </si>
   <si>
+    <t xml:space="preserve">Wir chauffieren Sie mit unsere Limousine -Flotte sowohl zum geschäftliche Termin als auch zum privaten Vergnügen, Flugtransfer,Eventbesuch und Stadtrundfahrten. Wir bieten auch nicht nur Limousinen aber auch TAXI, Minivans bis zu 8 Personen,  und ein Behindertenfahrzeug.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assicuriamo la nostra puntuale presenza ovunque Voi lo richiediate
 					24 ore su 24 per 365 giorni e su richiesta forniamo autisti con
 					conoscenza della lingua inglese, francese e tedesca.
@@ -242,6 +297,12 @@
 de notre expérience à votre disposition.</t>
   </si>
   <si>
+    <t xml:space="preserve">Wir gewährleisten unsere pünktliche Anwesenheit, wo immer Sie es wünschen
+24 Stunden am Tag für 365 Tag.
+Verlassen Sie Sich auf unseren service und erfharenen Chauffeure, auch mit Englisch, Französisch oder Deutsch Erkenntnis, die Sie püntlich und verlässlich an Ihr Ziel befördern.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il tutto per soddisfare ogni vostra esigenza.</t>
   </si>
   <si>
@@ -257,6 +318,9 @@
     <t xml:space="preserve">Tout pour satisfaire tous vos besoins.</t>
   </si>
   <si>
+    <t xml:space="preserve">Alles um Ihre Bedürfnisse zu befriedigen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vienici a trovare!</t>
   </si>
   <si>
@@ -272,6 +336,9 @@
     <t xml:space="preserve">Venez nous rendre visite!</t>
   </si>
   <si>
+    <t xml:space="preserve">Komm und besuche uns!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Al tuo servizio</t>
   </si>
   <si>
@@ -287,6 +354,9 @@
     <t xml:space="preserve">À votre service</t>
   </si>
   <si>
+    <t xml:space="preserve">Wir stehen Ihen rund um die Uhr zur Verfügung.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Servizio Taxi</t>
   </si>
   <si>
@@ -302,6 +372,9 @@
     <t xml:space="preserve">Service de taxi</t>
   </si>
   <si>
+    <t xml:space="preserve">Taxi-Service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il miglior trasporto di passeggeri pubblico</t>
   </si>
   <si>
@@ -317,6 +390,9 @@
     <t xml:space="preserve">Le meilleur transport de passagers publics</t>
   </si>
   <si>
+    <t xml:space="preserve">Das Top von Limousinenservice.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viaggi d'affari</t>
   </si>
   <si>
@@ -332,6 +408,9 @@
     <t xml:space="preserve">Voyages d'affaires</t>
   </si>
   <si>
+    <t xml:space="preserve">Geschäftsreisen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concentrati sul tuo business, al viaggio pensiamo noi</t>
   </si>
   <si>
@@ -345,6 +424,9 @@
   </si>
   <si>
     <t xml:space="preserve">Concentrez-vous sur votre entreprise, nous nous occuperons du voyage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Häufig kann der Chauffeur auf Zeit, Sie als Geschäftmann zu Ihren Kunden fahren, während Sie sich unterwegs in aller Ruhe, auf das folgende Kundengespräch vorbereiten.Wir bieten für jeden Zweck die passende Lösung.</t>
   </si>
   <si>
     <t xml:space="preserve">Tours</t>
@@ -372,6 +454,9 @@
     <t xml:space="preserve">Tours de ville et excursions touristiques avec possibilité de réservation</t>
   </si>
   <si>
+    <t xml:space="preserve">Stadtrundfahrten und Sightseeing </t>
+  </si>
+  <si>
     <t xml:space="preserve">Trasferimenti</t>
   </si>
   <si>
@@ -385,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">guides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer</t>
   </si>
   <si>
     <t xml:space="preserve">Da e per gli aeroporti o stazioni.&lt;br&gt;
@@ -409,6 +497,9 @@
 également avec des services collectifs</t>
   </si>
   <si>
+    <t xml:space="preserve">Flughafentransfer zwischen Venedig, Treviso, Milano mit TAXI, Limousine oder Sammeltaxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">VEDI</t>
   </si>
   <si>
@@ -421,6 +512,9 @@
     <t xml:space="preserve">VOIR</t>
   </si>
   <si>
+    <t xml:space="preserve">Fotos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contattaci</t>
   </si>
   <si>
@@ -431,6 +525,9 @@
   </si>
   <si>
     <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakt</t>
   </si>
   <si>
     <t xml:space="preserve">Consorzio Autonoleggio Radiotaxi Terme Euganee</t>
@@ -466,6 +563,9 @@
     <t xml:space="preserve">BUREAU PRINCIPAL - Via P. D'Abano 14 &lt;br&gt; 35031 - Abano Terme - (PD) - Tel: 049.66.78.42</t>
   </si>
   <si>
+    <t xml:space="preserve">Arte Taxi Via P.D Abano 14 35031 Abano Terme (PD) 049.66.78.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEDE SECONDARIA&lt;br&gt;
 				viale Stazione&lt;br&gt;
 				35036 - Montegrotto Terme - (PD)</t>
@@ -485,6 +585,9 @@
   </si>
   <si>
     <t xml:space="preserve">BUREAU SECONDAIRE – Viale Stazione &lt;br&gt; 35036 - Montegrotto Terme – (PD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihr findet uns auch Piazzale Stazione 35036 Montegrotto Terme (PD)</t>
   </si>
 </sst>
 </file>
@@ -494,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,8 +629,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -536,31 +647,55 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -593,11 +728,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -606,11 +745,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,11 +761,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,15 +769,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -652,66 +795,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -720,547 +803,643 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="959.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>49</v>
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="918.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="676.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
+      <c r="A15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>79</v>
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>84</v>
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>94</v>
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>95</v>
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="190.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>102</v>
+      <c r="A24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>107</v>
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>112</v>
+      <c r="A26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>116</v>
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>120</v>
+      <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>121</v>
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>133</v>
+      <c r="A30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
